--- a/data/상장법인/연구원님들/상장기업 검색_원수연.xlsx
+++ b/data/상장법인/연구원님들/상장기업 검색_원수연.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidus\Desktop\GRI Github\TNFD\data\상장법인\연구원님들\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\TNFD\data\상장법인\연구원님들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1E2885-FF16-4323-A03B-F5B81426494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACE871-8BED-4505-9D52-D5DD70382EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5585" uniqueCount="2873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="2871">
   <si>
     <t>전자공시시스템 &gt; 기업명 검색 &gt; 사업보고서 열람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9459,14 +9459,6 @@
   </si>
   <si>
     <t>매출액 연결제표의 연결 포괄손익계산서 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 계열사 포함 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 지방의 여러 가게 지점 포함 x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10141,10 +10133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P538"/>
+  <dimension ref="A1:P535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A535" sqref="A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10214,7 +10206,7 @@
         <v>1428</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -34846,16 +34838,6 @@
       </c>
       <c r="O535" s="8"/>
       <c r="P535" s="14"/>
-    </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A537" s="7" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A538" s="7" t="s">
-        <v>2871</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35354,23 +35336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="86b47003-a976-4a81-82b6-aa0427badf85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100770546FA527BC24B86C8E24CB5D1BF70" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="2937996aa1ef6f3b4de49e2068140736">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="86b47003-a976-4a81-82b6-aa0427badf85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cea0972801c98589a69516cd26a4e23f" ns3:_="">
     <xsd:import namespace="86b47003-a976-4a81-82b6-aa0427badf85"/>
@@ -35564,31 +35529,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AB2CEA-C4DE-43BE-A769-307138D48999}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD2CA144-CF48-4611-A933-D14329FCFF77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="86b47003-a976-4a81-82b6-aa0427badf85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="86b47003-a976-4a81-82b6-aa0427badf85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37E04E85-67E9-4B01-8A76-9CC9594CD416}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35604,4 +35562,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AB2CEA-C4DE-43BE-A769-307138D48999}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD2CA144-CF48-4611-A933-D14329FCFF77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="86b47003-a976-4a81-82b6-aa0427badf85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>